--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENDI\Documents\UiPath\GenerateYearly Report for Vendor\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40AE217-CFF5-4455-994F-5DF7FBA5DAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4D175-D005-4BC6-B256-EE6EC1415817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -231,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -241,7 +242,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -628,7 +628,7 @@
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -636,7 +636,7 @@
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
